--- a/Нагрузка в движении/excel.xlsx
+++ b/Нагрузка в движении/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Скорость</t>
   </si>
@@ -25,19 +25,31 @@
     <t>Площадь горба</t>
   </si>
   <si>
-    <t>0,45</t>
-  </si>
-  <si>
-    <t>0,71</t>
-  </si>
-  <si>
-    <t>0,92</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>1,65</t>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>0,15</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>0,72</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,38</t>
+  </si>
+  <si>
+    <t>0,44</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>0,55</t>
   </si>
 </sst>
 </file>
@@ -395,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>-0.002198701</v>
+        <v>-0.000293165</v>
       </c>
       <c r="D2">
-        <v>0.002811262</v>
+        <v>5.5296E-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,10 +446,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.003810184</v>
+        <v>-0.000207543</v>
       </c>
       <c r="D3">
-        <v>0.000910987</v>
+        <v>0.000161251</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,10 +460,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-0.004670783</v>
+        <v>-0.000398179</v>
       </c>
       <c r="D4">
-        <v>0.000411922</v>
+        <v>0.000191854</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,10 +474,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-0.004546693</v>
+        <v>-0.000561847</v>
       </c>
       <c r="D5">
-        <v>0.000738247</v>
+        <v>7.2467E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,10 +488,94 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-0.007651107</v>
+        <v>-0.000716174</v>
       </c>
       <c r="D6">
-        <v>0.00133881</v>
+        <v>0.000264239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>-0.000549159</v>
+      </c>
+      <c r="D7">
+        <v>0.000332124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>-0.000404512</v>
+      </c>
+      <c r="D8">
+        <v>0.000185345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>-0.000684261</v>
+      </c>
+      <c r="D9">
+        <v>2.6131E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-0.000837547</v>
+      </c>
+      <c r="D10">
+        <v>2.9505E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-0.000801351</v>
+      </c>
+      <c r="D11">
+        <v>3.2082E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>-0.000718727</v>
+      </c>
+      <c r="D12">
+        <v>4.6575E-05</v>
       </c>
     </row>
   </sheetData>
